--- a/inform.xlsx
+++ b/inform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jagajindan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\jagajindan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E0CFA-E14F-42B3-A847-0D10C8E040C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356E994-B4E1-4DC8-ADAE-98212DFDF5D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2040" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -291,14 +291,6 @@
   </si>
   <si>
     <t>1230</t>
-  </si>
-  <si>
-    <t>김동은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이규원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>041201</t>
@@ -317,35 +309,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문재영</t>
+    <t>이규원</t>
+  </si>
+  <si>
+    <t>조현성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>040326</t>
+    <t>050912</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0426</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은태호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>040501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2157</t>
+    <t>0303</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,11 +412,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -667,20 +644,20 @@
       <selection pane="bottomLeft" activeCell="D31" sqref="B2:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="49.5546875" customWidth="1"/>
-    <col min="9" max="10" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" customWidth="1"/>
+    <col min="9" max="10" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44201.840936597218</v>
       </c>
@@ -732,7 +709,7 @@
         <v>"1234",</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44201.841848842596</v>
       </c>
@@ -758,7 +735,7 @@
         <v>"0728",</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44201.842083750002</v>
       </c>
@@ -784,7 +761,7 @@
         <v>"7374",</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>44201.842198495375</v>
       </c>
@@ -810,7 +787,7 @@
         <v>"1102",</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44201.842346631944</v>
       </c>
@@ -836,7 +813,7 @@
         <v>"9975",</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44201.843031192126</v>
       </c>
@@ -862,7 +839,7 @@
         <v>"1234",</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44201.863691238425</v>
       </c>
@@ -888,7 +865,7 @@
         <v>"4830",</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44201.916260879632</v>
       </c>
@@ -914,7 +891,7 @@
         <v>"0323",</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44202.579544629625</v>
       </c>
@@ -940,7 +917,7 @@
         <v>"9876",</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44202.579806203707</v>
       </c>
@@ -966,7 +943,7 @@
         <v>"0493",</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44202.579851180555</v>
       </c>
@@ -992,7 +969,7 @@
         <v>"8800",</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44202.582052708334</v>
       </c>
@@ -1018,7 +995,7 @@
         <v>"6212",</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44202.584073113423</v>
       </c>
@@ -1044,7 +1021,7 @@
         <v>"1128",</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44202.584943275462</v>
       </c>
@@ -1070,7 +1047,7 @@
         <v>"0917",</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44202.585281250002</v>
       </c>
@@ -1096,7 +1073,7 @@
         <v>"0731",</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44202.591578032407</v>
       </c>
@@ -1122,7 +1099,7 @@
         <v>"1234",</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44202.594192094912</v>
       </c>
@@ -1148,7 +1125,7 @@
         <v>"1234",</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44202.600295914352</v>
       </c>
@@ -1174,7 +1151,7 @@
         <v>"0213",</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44202.60533337963</v>
       </c>
@@ -1200,7 +1177,7 @@
         <v>"0425",</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44202.60685758102</v>
       </c>
@@ -1226,7 +1203,7 @@
         <v>"1365",</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44202.608769282408</v>
       </c>
@@ -1252,7 +1229,7 @@
         <v>"0515",</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44202.616284884258</v>
       </c>
@@ -1278,7 +1255,7 @@
         <v>"4646",</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44202.624128124997</v>
       </c>
@@ -1304,7 +1281,7 @@
         <v>"9927",</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44202.628565601852</v>
       </c>
@@ -1330,7 +1307,7 @@
         <v>"6704",</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44202.629457314819</v>
       </c>
@@ -1356,7 +1333,7 @@
         <v>"0226",</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44202.653784456023</v>
       </c>
@@ -1382,7 +1359,7 @@
         <v>"3861",</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44202.661481921299</v>
       </c>
@@ -1408,7 +1385,7 @@
         <v>"1230",</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44202.676130624997</v>
       </c>
@@ -1434,7 +1411,7 @@
         <v>"0616",</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44204.511972766202</v>
       </c>
@@ -1460,7 +1437,7 @@
         <v>"0524"</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44207.091392442133</v>
       </c>
@@ -1474,502 +1451,502 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -1983,16 +1960,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1EEDE-1A22-4AB4-AA89-6FA11D3F8B0B}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2002,357 +1979,165 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C30">

--- a/inform.xlsx
+++ b/inform.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\jagajindan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C356E994-B4E1-4DC8-ADAE-98212DFDF5D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BB2EE-2A69-41B4-B6B5-720C4C87AD93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2040" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="2730" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -293,8 +293,22 @@
     <t>1230</t>
   </si>
   <si>
+    <t>이규원</t>
+  </si>
+  <si>
+    <t>조현성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>050912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>041201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -306,22 +320,6 @@
       </rPr>
       <t>1201</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이규원</t>
-  </si>
-  <si>
-    <t>조현성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>050912</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0303</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -331,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -345,13 +343,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -390,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,13 +403,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -639,9 +646,9 @@
   </sheetPr>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="B2:D31"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -760,6 +767,15 @@
         <f t="shared" si="3"/>
         <v>"7374",</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -786,6 +802,15 @@
         <f t="shared" si="4"/>
         <v>"1102",</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -812,6 +837,15 @@
         <f t="shared" si="5"/>
         <v>"9975",</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -838,6 +872,15 @@
         <f t="shared" si="6"/>
         <v>"1234",</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -864,6 +907,15 @@
         <f t="shared" si="7"/>
         <v>"4830",</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -890,6 +942,15 @@
         <f t="shared" si="8"/>
         <v>"0323",</v>
       </c>
+      <c r="H9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -915,6 +976,15 @@
       <c r="G10" s="1" t="str">
         <f t="shared" si="9"/>
         <v>"9876",</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,192 +2029,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1EEDE-1A22-4AB4-AA89-6FA11D3F8B0B}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4ADAD5-6045-4B19-AE96-41D8D2E0C1C8}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C30">
-    <sortCondition ref="C30"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inform.xlsx
+++ b/inform.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\jagajindan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BB2EE-2A69-41B4-B6B5-720C4C87AD93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0DFB1-832D-498D-B4F1-15C46A16E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="2730" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2340" windowWidth="12840" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -320,6 +329,28 @@
       </rPr>
       <t>1201</t>
     </r>
+  </si>
+  <si>
+    <t>박재범</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>40604</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7374</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,15 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2030,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4ADAD5-6045-4B19-AE96-41D8D2E0C1C8}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2062,72 +2084,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>17</v>
+      <c r="A4" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inform.xlsx
+++ b/inform.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\jagajindan\Last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0DFB1-832D-498D-B4F1-15C46A16E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA78B05-AB92-4990-9213-6C836D669836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2340" windowWidth="12840" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -412,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,6 +439,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2052,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4ADAD5-6045-4B19-AE96-41D8D2E0C1C8}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2084,51 +2084,84 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inform.xlsx
+++ b/inform.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\jagajindan\Last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA78B05-AB92-4990-9213-6C836D669836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0DFB1-832D-498D-B4F1-15C46A16E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2340" windowWidth="12840" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -403,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,15 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2052,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4ADAD5-6045-4B19-AE96-41D8D2E0C1C8}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2084,84 +2084,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>17</v>
+      <c r="A4" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>